--- a/Main/bin/Debug/net8.0-windows/steps_data.xlsx
+++ b/Main/bin/Debug/net8.0-windows/steps_data.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\source\repos\Проект\MainProject\Main\bin\Debug\net8.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\source\repos\Проект\Project\Main\bin\Debug\net8.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68445A0-4D89-4370-9C6D-179896AC5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50837E0-69EC-4415-8A82-B1B924A38188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42315" yWindow="9900" windowWidth="16200" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="6075" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -437,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +470,8 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22468</v>
+        <f ca="1">RANDBETWEEN(2000, 10000)</f>
+        <v>6742</v>
       </c>
       <c r="B2" s="1">
         <v>45432</v>
@@ -470,7 +482,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17086</v>
+        <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(2000, 10000)</f>
+        <v>3301</v>
       </c>
       <c r="B3" s="1">
         <v>45433</v>
@@ -481,7 +494,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>23243</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2850</v>
       </c>
       <c r="B4" s="1">
         <v>45434</v>
@@ -492,7 +506,8 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9724</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3771</v>
       </c>
       <c r="B5" s="1">
         <v>45435</v>
@@ -503,7 +518,8 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23757</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6622</v>
       </c>
       <c r="B6" s="1">
         <v>45436</v>
@@ -514,7 +530,8 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8472</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5667</v>
       </c>
       <c r="B7" s="1">
         <v>45437</v>
@@ -525,7 +542,8 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17902</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3018</v>
       </c>
       <c r="B8" s="1">
         <v>45438</v>
@@ -536,7 +554,8 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15239</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2550</v>
       </c>
       <c r="B9" s="1">
         <v>45439</v>
@@ -547,7 +566,8 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21942</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7023</v>
       </c>
       <c r="B10" s="1">
         <v>45440</v>
@@ -558,7 +578,8 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13880</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9543</v>
       </c>
       <c r="B11" s="1">
         <v>45441</v>
@@ -569,7 +590,8 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2611</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7049</v>
       </c>
       <c r="B12" s="1">
         <v>45442</v>
@@ -580,7 +602,8 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9289</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8185</v>
       </c>
       <c r="B13" s="1">
         <v>45443</v>
@@ -591,7 +614,8 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2037</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5021</v>
       </c>
       <c r="B14" s="1">
         <v>45444</v>
@@ -602,7 +626,8 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15045</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3677</v>
       </c>
       <c r="B15" s="1">
         <v>45445</v>
@@ -613,7 +638,8 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19799</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4925</v>
       </c>
       <c r="B16" s="1">
         <v>45446</v>
@@ -624,7 +650,8 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21243</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8919</v>
       </c>
       <c r="B17" s="1">
         <v>45447</v>
@@ -635,7 +662,8 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5902</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4105</v>
       </c>
       <c r="B18" s="1">
         <v>45448</v>
@@ -646,7 +674,8 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>25337</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7591</v>
       </c>
       <c r="B19" s="1">
         <v>45449</v>
@@ -657,7 +686,8 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5670</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6942</v>
       </c>
       <c r="B20" s="1">
         <v>45450</v>
@@ -668,7 +698,8 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9562</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8665</v>
       </c>
       <c r="B21" s="1">
         <v>45451</v>
@@ -679,7 +710,8 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2552</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5061</v>
       </c>
       <c r="B22" s="1">
         <v>45452</v>
@@ -690,7 +722,8 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>15039</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4780</v>
       </c>
       <c r="B23" s="1">
         <v>45453</v>
@@ -701,7 +734,8 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2173</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7528</v>
       </c>
       <c r="B24" s="1">
         <v>45454</v>
@@ -712,7 +746,8 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6417</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4347</v>
       </c>
       <c r="B25" s="1">
         <v>45455</v>
@@ -723,7 +758,8 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>14671</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5358</v>
       </c>
       <c r="B26" s="1">
         <v>45456</v>
@@ -734,7 +770,8 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>19603</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7286</v>
       </c>
       <c r="B27" s="1">
         <v>45457</v>
@@ -745,7 +782,8 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27507</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3617</v>
       </c>
       <c r="B28" s="1">
         <v>45458</v>
@@ -756,7 +794,8 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18495</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6610</v>
       </c>
       <c r="B29" s="1">
         <v>45459</v>
@@ -767,7 +806,8 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28490</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7732</v>
       </c>
       <c r="B30" s="1">
         <v>45460</v>
@@ -778,7 +818,8 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10964</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4443</v>
       </c>
       <c r="B31" s="1">
         <v>45461</v>
@@ -789,7 +830,8 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>27064</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5996</v>
       </c>
       <c r="B32" s="1">
         <v>45462</v>
@@ -800,7 +842,8 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10653</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7302</v>
       </c>
       <c r="B33" s="1">
         <v>45463</v>
@@ -811,7 +854,8 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>8807</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9888</v>
       </c>
       <c r="B34" s="1">
         <v>45464</v>
@@ -822,7 +866,8 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>25151</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8612</v>
       </c>
       <c r="B35" s="1">
         <v>45465</v>
@@ -833,7 +878,8 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10457</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8073</v>
       </c>
       <c r="B36" s="1">
         <v>45466</v>
@@ -844,7 +890,8 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11711</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6020</v>
       </c>
       <c r="B37" s="1">
         <v>45467</v>
@@ -855,7 +902,8 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>26672</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8247</v>
       </c>
       <c r="B38" s="1">
         <v>45468</v>
@@ -866,7 +914,8 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>23438</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5801</v>
       </c>
       <c r="B39" s="1">
         <v>45469</v>
@@ -877,7 +926,8 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3679</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7875</v>
       </c>
       <c r="B40" s="1">
         <v>45470</v>
@@ -888,7 +938,8 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>19325</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4030</v>
       </c>
       <c r="B41" s="1">
         <v>45471</v>
@@ -899,7 +950,8 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9511</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6568</v>
       </c>
       <c r="B42" s="1">
         <v>45472</v>
@@ -910,7 +962,8 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>25654</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9411</v>
       </c>
       <c r="B43" s="1">
         <v>45473</v>
@@ -921,7 +974,8 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13754</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9704</v>
       </c>
       <c r="B44" s="1">
         <v>45474</v>
@@ -932,7 +986,8 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7551</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8964</v>
       </c>
       <c r="B45" s="1">
         <v>45475</v>
@@ -943,7 +998,8 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>14293</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3333</v>
       </c>
       <c r="B46" s="1">
         <v>45476</v>
@@ -954,7 +1010,8 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15434</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4386</v>
       </c>
       <c r="B47" s="1">
         <v>45477</v>
@@ -965,7 +1022,8 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>26326</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7780</v>
       </c>
       <c r="B48" s="1">
         <v>45478</v>
@@ -976,7 +1034,8 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8414</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3928</v>
       </c>
       <c r="B49" s="1">
         <v>45479</v>
@@ -987,7 +1046,8 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>21642</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5017</v>
       </c>
       <c r="B50" s="1">
         <v>45480</v>
@@ -998,7 +1058,8 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7258</v>
       </c>
       <c r="B51" s="1">
         <v>45481</v>
@@ -1009,7 +1070,8 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>27740</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7127</v>
       </c>
       <c r="B52" s="1">
         <v>45482</v>
@@ -1020,7 +1082,8 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>11435</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4392</v>
       </c>
       <c r="B53" s="1">
         <v>45483</v>
@@ -1031,7 +1094,8 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>29542</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5729</v>
       </c>
       <c r="B54" s="1">
         <v>45484</v>
@@ -1042,7 +1106,8 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6690</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2741</v>
       </c>
       <c r="B55" s="1">
         <v>45485</v>
@@ -1053,7 +1118,8 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>16459</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7267</v>
       </c>
       <c r="B56" s="1">
         <v>45486</v>
@@ -1064,7 +1130,8 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8609</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3096</v>
       </c>
       <c r="B57" s="1">
         <v>45487</v>
@@ -1075,7 +1142,8 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>23820</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7837</v>
       </c>
       <c r="B58" s="1">
         <v>45488</v>
@@ -1086,7 +1154,8 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13760</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9394</v>
       </c>
       <c r="B59" s="1">
         <v>45489</v>
@@ -1097,7 +1166,8 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>15820</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3945</v>
       </c>
       <c r="B60" s="1">
         <v>45490</v>
@@ -1108,7 +1178,8 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1336</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4760</v>
       </c>
       <c r="B61" s="1">
         <v>45491</v>
@@ -1119,7 +1190,8 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>21710</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2151</v>
       </c>
       <c r="B62" s="1">
         <v>45492</v>
@@ -1130,7 +1202,8 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>23306</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5835</v>
       </c>
       <c r="B63" s="1">
         <v>45493</v>
@@ -1141,7 +1214,8 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10181</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8732</v>
       </c>
       <c r="B64" s="1">
         <v>45494</v>
@@ -1152,7 +1226,8 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>18998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7385</v>
       </c>
       <c r="B65" s="1">
         <v>45495</v>
@@ -1163,7 +1238,8 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>7135</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2913</v>
       </c>
       <c r="B66" s="1">
         <v>45496</v>
@@ -1174,7 +1250,8 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6772</v>
+        <f t="shared" ref="A67:A130" ca="1" si="1">RANDBETWEEN(2000, 10000)</f>
+        <v>7980</v>
       </c>
       <c r="B67" s="1">
         <v>45497</v>
@@ -1185,7 +1262,8 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4330</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7853</v>
       </c>
       <c r="B68" s="1">
         <v>45498</v>
@@ -1196,7 +1274,8 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>21596</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3541</v>
       </c>
       <c r="B69" s="1">
         <v>45499</v>
@@ -1207,7 +1286,8 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>15808</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6684</v>
       </c>
       <c r="B70" s="1">
         <v>45500</v>
@@ -1218,7 +1298,8 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10878</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7356</v>
       </c>
       <c r="B71" s="1">
         <v>45501</v>
@@ -1229,7 +1310,8 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1957</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2688</v>
       </c>
       <c r="B72" s="1">
         <v>45502</v>
@@ -1240,7 +1322,8 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3166</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6825</v>
       </c>
       <c r="B73" s="1">
         <v>45503</v>
@@ -1251,7 +1334,8 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>9284</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8780</v>
       </c>
       <c r="B74" s="1">
         <v>45504</v>
@@ -1262,7 +1346,8 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8224</v>
       </c>
       <c r="B75" s="1">
         <v>45505</v>
@@ -1273,7 +1358,8 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>25028</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9359</v>
       </c>
       <c r="B76" s="1">
         <v>45506</v>
@@ -1284,7 +1370,8 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>12875</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9703</v>
       </c>
       <c r="B77" s="1">
         <v>45507</v>
@@ -1295,7 +1382,8 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5255</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6746</v>
       </c>
       <c r="B78" s="1">
         <v>45508</v>
@@ -1306,7 +1394,8 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5358</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4281</v>
       </c>
       <c r="B79" s="1">
         <v>45509</v>
@@ -1317,7 +1406,8 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>11171</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4690</v>
       </c>
       <c r="B80" s="1">
         <v>45510</v>
@@ -1328,7 +1418,8 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>17122</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5508</v>
       </c>
       <c r="B81" s="1">
         <v>45511</v>
@@ -1339,7 +1430,8 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>28259</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6991</v>
       </c>
       <c r="B82" s="1">
         <v>45512</v>
@@ -1350,7 +1442,8 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>23563</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6942</v>
       </c>
       <c r="B83" s="1">
         <v>45513</v>
@@ -1361,7 +1454,8 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>19094</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6409</v>
       </c>
       <c r="B84" s="1">
         <v>45514</v>
@@ -1372,7 +1466,8 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>24056</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5798</v>
       </c>
       <c r="B85" s="1">
         <v>45515</v>
@@ -1383,7 +1478,8 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>14249</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6544</v>
       </c>
       <c r="B86" s="1">
         <v>45516</v>
@@ -1394,7 +1490,8 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>16466</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4021</v>
       </c>
       <c r="B87" s="1">
         <v>45517</v>
@@ -1405,7 +1502,8 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>21923</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3102</v>
       </c>
       <c r="B88" s="1">
         <v>45518</v>
@@ -1416,7 +1514,8 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>26498</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8184</v>
       </c>
       <c r="B89" s="1">
         <v>45519</v>
@@ -1427,7 +1526,8 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>27488</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3560</v>
       </c>
       <c r="B90" s="1">
         <v>45520</v>
@@ -1438,7 +1538,8 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9924</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2381</v>
       </c>
       <c r="B91" s="1">
         <v>45521</v>
@@ -1449,7 +1550,8 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5297</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4390</v>
       </c>
       <c r="B92" s="1">
         <v>45522</v>
@@ -1460,7 +1562,8 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>17317</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3641</v>
       </c>
       <c r="B93" s="1">
         <v>45523</v>
@@ -1471,7 +1574,8 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>18191</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4193</v>
       </c>
       <c r="B94" s="1">
         <v>45524</v>
@@ -1482,7 +1586,8 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7746</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3013</v>
       </c>
       <c r="B95" s="1">
         <v>45525</v>
@@ -1493,7 +1598,8 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2515</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4857</v>
       </c>
       <c r="B96" s="1">
         <v>45526</v>
@@ -1504,7 +1610,8 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6347</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9129</v>
       </c>
       <c r="B97" s="1">
         <v>45527</v>
@@ -1515,7 +1622,8 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>23699</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3350</v>
       </c>
       <c r="B98" s="1">
         <v>45528</v>
@@ -1526,7 +1634,8 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5657</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6508</v>
       </c>
       <c r="B99" s="1">
         <v>45529</v>
@@ -1537,7 +1646,8 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>7851</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7287</v>
       </c>
       <c r="B100" s="1">
         <v>45530</v>
@@ -1548,7 +1658,8 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>15797</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9127</v>
       </c>
       <c r="B101" s="1">
         <v>45531</v>
@@ -1559,7 +1670,8 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>7013</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9075</v>
       </c>
       <c r="B102" s="1">
         <v>45532</v>
@@ -1570,7 +1682,8 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>12130</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6435</v>
       </c>
       <c r="B103" s="1">
         <v>45533</v>
@@ -1581,7 +1694,8 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>15257</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2431</v>
       </c>
       <c r="B104" s="1">
         <v>45534</v>
@@ -1592,7 +1706,8 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>13476</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4681</v>
       </c>
       <c r="B105" s="1">
         <v>45535</v>
@@ -1603,7 +1718,8 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10455</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5328</v>
       </c>
       <c r="B106" s="1">
         <v>45536</v>
@@ -1614,7 +1730,8 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>21773</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8848</v>
       </c>
       <c r="B107" s="1">
         <v>45537</v>
@@ -1625,7 +1742,8 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>17609</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4789</v>
       </c>
       <c r="B108" s="1">
         <v>45538</v>
@@ -1636,7 +1754,8 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>21069</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4413</v>
       </c>
       <c r="B109" s="1">
         <v>45539</v>
@@ -1647,7 +1766,8 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>25055</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5020</v>
       </c>
       <c r="B110" s="1">
         <v>45540</v>
@@ -1658,7 +1778,8 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>3554</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3131</v>
       </c>
       <c r="B111" s="1">
         <v>45541</v>
@@ -1669,7 +1790,8 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6968</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5102</v>
       </c>
       <c r="B112" s="1">
         <v>45542</v>
@@ -1680,7 +1802,8 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1369</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2389</v>
       </c>
       <c r="B113" s="1">
         <v>45543</v>
@@ -1691,7 +1814,8 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>25707</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8893</v>
       </c>
       <c r="B114" s="1">
         <v>45544</v>
@@ -1702,7 +1826,8 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>29759</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3310</v>
       </c>
       <c r="B115" s="1">
         <v>45545</v>
@@ -1713,7 +1838,8 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>7593</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6066</v>
       </c>
       <c r="B116" s="1">
         <v>45546</v>
@@ -1724,7 +1850,8 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>17945</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5490</v>
       </c>
       <c r="B117" s="1">
         <v>45547</v>
@@ -1735,7 +1862,8 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>21202</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4962</v>
       </c>
       <c r="B118" s="1">
         <v>45548</v>
@@ -1746,7 +1874,8 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>4336</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7148</v>
       </c>
       <c r="B119" s="1">
         <v>45549</v>
@@ -1757,7 +1886,8 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>19124</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5195</v>
       </c>
       <c r="B120" s="1">
         <v>45550</v>
@@ -1768,7 +1898,8 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>13237</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5757</v>
       </c>
       <c r="B121" s="1">
         <v>45551</v>
@@ -1779,7 +1910,8 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>15963</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9574</v>
       </c>
       <c r="B122" s="1">
         <v>45552</v>
@@ -1790,7 +1922,8 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>20848</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2797</v>
       </c>
       <c r="B123" s="1">
         <v>45553</v>
@@ -1801,7 +1934,8 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1430</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6991</v>
       </c>
       <c r="B124" s="1">
         <v>45554</v>
@@ -1812,7 +1946,8 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>12908</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7985</v>
       </c>
       <c r="B125" s="1">
         <v>45555</v>
@@ -1823,7 +1958,8 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>15710</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9751</v>
       </c>
       <c r="B126" s="1">
         <v>45556</v>
@@ -1834,7 +1970,8 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>9653</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9970</v>
       </c>
       <c r="B127" s="1">
         <v>45557</v>
@@ -1845,7 +1982,8 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>5375</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4683</v>
       </c>
       <c r="B128" s="1">
         <v>45558</v>
@@ -1856,7 +1994,8 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>16765</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2635</v>
       </c>
       <c r="B129" s="1">
         <v>45559</v>
@@ -1867,7 +2006,8 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>13782</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7141</v>
       </c>
       <c r="B130" s="1">
         <v>45560</v>
@@ -1878,7 +2018,8 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>15240</v>
+        <f t="shared" ref="A131:A192" ca="1" si="2">RANDBETWEEN(2000, 10000)</f>
+        <v>2621</v>
       </c>
       <c r="B131" s="1">
         <v>45561</v>
@@ -1889,7 +2030,8 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>16032</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4737</v>
       </c>
       <c r="B132" s="1">
         <v>45562</v>
@@ -1900,7 +2042,8 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>6227</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8327</v>
       </c>
       <c r="B133" s="1">
         <v>45563</v>
@@ -1911,7 +2054,8 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>21877</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3292</v>
       </c>
       <c r="B134" s="1">
         <v>45564</v>
@@ -1922,7 +2066,8 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>20867</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8198</v>
       </c>
       <c r="B135" s="1">
         <v>45565</v>
@@ -1933,7 +2078,8 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5297</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7409</v>
       </c>
       <c r="B136" s="1">
         <v>45566</v>
@@ -1944,7 +2090,8 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20730</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3325</v>
       </c>
       <c r="B137" s="1">
         <v>45567</v>
@@ -1955,7 +2102,8 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3578</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9803</v>
       </c>
       <c r="B138" s="1">
         <v>45568</v>
@@ -1966,7 +2114,8 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>24993</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6737</v>
       </c>
       <c r="B139" s="1">
         <v>45569</v>
@@ -1977,7 +2126,8 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>28916</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3094</v>
       </c>
       <c r="B140" s="1">
         <v>45570</v>
@@ -1988,7 +2138,8 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>13601</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2548</v>
       </c>
       <c r="B141" s="1">
         <v>45571</v>
@@ -1999,7 +2150,8 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>10643</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3322</v>
       </c>
       <c r="B142" s="1">
         <v>45572</v>
@@ -2010,7 +2162,8 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>29724</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7901</v>
       </c>
       <c r="B143" s="1">
         <v>45573</v>
@@ -2021,7 +2174,8 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>13110</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7808</v>
       </c>
       <c r="B144" s="1">
         <v>45574</v>
@@ -2032,7 +2186,8 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>14008</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5226</v>
       </c>
       <c r="B145" s="1">
         <v>45575</v>
@@ -2043,7 +2198,8 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>13464</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5689</v>
       </c>
       <c r="B146" s="1">
         <v>45576</v>
@@ -2054,7 +2210,8 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>20523</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3401</v>
       </c>
       <c r="B147" s="1">
         <v>45577</v>
@@ -2065,7 +2222,8 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1448</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5506</v>
       </c>
       <c r="B148" s="1">
         <v>45578</v>
@@ -2076,7 +2234,8 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>28835</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5187</v>
       </c>
       <c r="B149" s="1">
         <v>45579</v>
@@ -2087,7 +2246,8 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>23163</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7784</v>
       </c>
       <c r="B150" s="1">
         <v>45580</v>
@@ -2098,7 +2258,8 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>9417</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3248</v>
       </c>
       <c r="B151" s="1">
         <v>45581</v>
@@ -2109,7 +2270,8 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>27438</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4574</v>
       </c>
       <c r="B152" s="1">
         <v>45582</v>
@@ -2120,7 +2282,8 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6092</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4218</v>
       </c>
       <c r="B153" s="1">
         <v>45583</v>
@@ -2131,7 +2294,8 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>29938</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3400</v>
       </c>
       <c r="B154" s="1">
         <v>45584</v>
@@ -2142,7 +2306,8 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>29842</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2057</v>
       </c>
       <c r="B155" s="1">
         <v>45585</v>
@@ -2153,7 +2318,8 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>24556</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4274</v>
       </c>
       <c r="B156" s="1">
         <v>45586</v>
@@ -2164,7 +2330,8 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>19764</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7745</v>
       </c>
       <c r="B157" s="1">
         <v>45587</v>
@@ -2175,7 +2342,8 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>19136</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6074</v>
       </c>
       <c r="B158" s="1">
         <v>45588</v>
@@ -2186,7 +2354,8 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>9853</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5532</v>
       </c>
       <c r="B159" s="1">
         <v>45589</v>
@@ -2197,7 +2366,8 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>21509</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8057</v>
       </c>
       <c r="B160" s="1">
         <v>45590</v>
@@ -2208,7 +2378,8 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>7405</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7054</v>
       </c>
       <c r="B161" s="1">
         <v>45591</v>
@@ -2219,7 +2390,8 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>12900</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7945</v>
       </c>
       <c r="B162" s="1">
         <v>45592</v>
@@ -2230,7 +2402,8 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>15574</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6682</v>
       </c>
       <c r="B163" s="1">
         <v>45593</v>
@@ -2241,7 +2414,8 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11586</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4970</v>
       </c>
       <c r="B164" s="1">
         <v>45594</v>
@@ -2252,7 +2426,8 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>29719</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6827</v>
       </c>
       <c r="B165" s="1">
         <v>45595</v>
@@ -2263,7 +2438,8 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>26227</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5728</v>
       </c>
       <c r="B166" s="1">
         <v>45596</v>
@@ -2274,7 +2450,8 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>7824</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9375</v>
       </c>
       <c r="B167" s="1">
         <v>45597</v>
@@ -2285,7 +2462,8 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>23448</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7101</v>
       </c>
       <c r="B168" s="1">
         <v>45598</v>
@@ -2296,7 +2474,8 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6466</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2930</v>
       </c>
       <c r="B169" s="1">
         <v>45599</v>
@@ -2307,7 +2486,8 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>12003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8009</v>
       </c>
       <c r="B170" s="1">
         <v>45600</v>
@@ -2318,7 +2498,8 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>6635</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6083</v>
       </c>
       <c r="B171" s="1">
         <v>45601</v>
@@ -2329,7 +2510,8 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3951</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6004</v>
       </c>
       <c r="B172" s="1">
         <v>45602</v>
@@ -2340,7 +2522,8 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>15769</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9145</v>
       </c>
       <c r="B173" s="1">
         <v>45603</v>
@@ -2351,7 +2534,8 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>27551</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3131</v>
       </c>
       <c r="B174" s="1">
         <v>45604</v>
@@ -2362,7 +2546,8 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3234</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7274</v>
       </c>
       <c r="B175" s="1">
         <v>45605</v>
@@ -2373,7 +2558,8 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>22618</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9142</v>
       </c>
       <c r="B176" s="1">
         <v>45606</v>
@@ -2384,7 +2570,8 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>21045</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7896</v>
       </c>
       <c r="B177" s="1">
         <v>45607</v>
@@ -2395,7 +2582,8 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>16401</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2150</v>
       </c>
       <c r="B178" s="1">
         <v>45608</v>
@@ -2406,7 +2594,8 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>22074</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7247</v>
       </c>
       <c r="B179" s="1">
         <v>45609</v>
@@ -2417,7 +2606,8 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>22103</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8343</v>
       </c>
       <c r="B180" s="1">
         <v>45610</v>
@@ -2428,7 +2618,8 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>14338</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4070</v>
       </c>
       <c r="B181" s="1">
         <v>45611</v>
@@ -2439,7 +2630,8 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>4155</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3313</v>
       </c>
       <c r="B182" s="1">
         <v>45612</v>
@@ -2450,7 +2642,8 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1810</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5749</v>
       </c>
       <c r="B183" s="1">
         <v>45613</v>
@@ -2461,7 +2654,8 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>29749</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3869</v>
       </c>
       <c r="B184" s="1">
         <v>45614</v>
@@ -2472,7 +2666,8 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>19800</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6595</v>
       </c>
       <c r="B185" s="1">
         <v>45615</v>
@@ -2483,7 +2678,8 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>13875</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3051</v>
       </c>
       <c r="B186" s="1">
         <v>45616</v>
@@ -2494,7 +2690,8 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>23765</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5549</v>
       </c>
       <c r="B187" s="1">
         <v>45617</v>
@@ -2505,7 +2702,8 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>27739</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7937</v>
       </c>
       <c r="B188" s="1">
         <v>45618</v>
@@ -2516,7 +2714,8 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>23048</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2943</v>
       </c>
       <c r="B189" s="1">
         <v>45619</v>
@@ -2527,7 +2726,8 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>19567</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8415</v>
       </c>
       <c r="B190" s="1">
         <v>45620</v>
@@ -2538,7 +2738,8 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>24941</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6225</v>
       </c>
       <c r="B191" s="1">
         <v>45621</v>
@@ -2549,7 +2750,8 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1762</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8288</v>
       </c>
       <c r="B192" s="1">
         <v>45622</v>
